--- a/01. HUB/volumen & xenofobia/tasa xenobia/picos xenofobia/2025/Bases Paises Q2-25/00. Bases/pico_marcacion_peru.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/picos xenofobia/2025/Bases Paises Q2-25/00. Bases/pico_marcacion_peru.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,17 +488,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-14 03:52:57.000</t>
+          <t>2025-04-12 03:36:57.000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Escuchar a Carlos Álvarez en @Latina_pe con Christian Hudtwalcker, prometiendo pena de muerte, jueces sin rostro, expulsión de extranjeros, imitar a El Salvador; es una muestra de lo pobre que viene la oferta política para estas elecciones.\n\nLo único que hace es decir lo que la mayoría quiere escuchar, pero ignora brutalmente que casi todo lo que promete no depende de él y además vulnera la constitución y los tratados internacionales.\n\n...Empieza la carrera #Elecciones2026</t>
+          <t>Twitter nos hizo amigos, pero odiar a los venecos nos hizo hermanos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Escuchar a Carlos Álvarez en @Latina_pe con Christian Hudtwalcker, prometiendo pena de muerte, jueces sin rostro, expulsión de extranjeros, imitar a El Salvador; es una muestra de lo pobre que viene la oferta política para estas elecciones. Lo único que hace es decir lo que la mayoría quiere escuchar, pero ignora brutalmente que casi todo lo que...</t>
+          <t>Twitter nos hizo amigos, pero odiar a los venecos nos hizo hermanos</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -514,27 +514,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>59.1</v>
       </c>
       <c r="I2" t="n">
-        <v>237</v>
+        <v>18300</v>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-14 03:33:54.000</t>
+          <t>2025-04-12 02:10:27.000</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>⚡LA LEY PERU 🇵🇪 2 EN MOTO ES UN DELITO !!! VENECOSICARIOS se quedan a Pie en PERÚ + Desde el 17 DENUNCIE que 2 no pueden ir en una moto lineal 🚳 🙏🏻 https://t.co/vK5KnbMmGp</t>
+          <t>#OcurreAhora | Delincuentes de SMP se únen a 'chalacos': "Comenzaremos a eliminar venecos, culpables e inocentes"\nhttps://t.co/WbVYhVFgSX</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>⚡LA LEY PERU 🇵🇪 2 EN MOTO ES UN DELITO !!! VENECOSICARIOS se quedan a Pie en PERÚ + Desde el 17 DENUNCIE que 2 no pueden ir en una moto lineal 🚳 🙏🏻 https://t.co/vK5KnbMmGp</t>
+          <t>#OcurreAhora | Delincuentes de SMP se únen a 'chalacos': "Comenzaremos a eliminar venecos, culpables e inocentes" https://t.co/WbVYhVFgSX</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -550,31 +550,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>46.2</v>
+        <v>67.8</v>
       </c>
       <c r="I3" t="n">
-        <v>4742</v>
+        <v>726450</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://t.co/vK5KnbMmGp</t>
+          <t>https://t.co/WbVYhVFgSX</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-14 01:19:43.000</t>
+          <t>2025-04-12 01:47:35.000</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cuidado con los delincuentes peruanos que dicen que van a matar a los delincuentes venezolanos. \nTerminarán siendo los héroes de un país en dónde el Estado no está presente.\nSomos Sinaloa</t>
+          <t>#OcurreAhora | Delincuentes de SMP se únen a 'chalacos': "Comenzaremos a eliminar venecos, culpables e inocentes"\nhttps://t.co/RLwVPoeUyi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cuidado con los delincuentes peruanos que dicen que van a matar a los delincuentes venezolanos. Terminarán siendo los héroes de un país en dónde el Estado no está presente. Somos Sinaloa</t>
+          <t>#OcurreAhora | Delincuentes de SMP se únen a 'chalacos': "Comenzaremos a eliminar venecos, culpables e inocentes" https://t.co/RLwVPoeUyi</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -590,27 +590,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>31.5</v>
+        <v>66.7</v>
       </c>
       <c r="I4" t="n">
-        <v>9791</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>517524</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://t.co/RLwVPoeUyi</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-13 23:02:00.000</t>
+          <t>2025-04-12 01:47:35.000</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Estados Unidos deporta 10 nuevos migrantes "criminales" a El Salvador https://t.co/uv2L6ArmL6</t>
+          <t>#OcurreAhora | Delincuentes de SMP se únen a 'chalacos': "Comenzaremos a eliminar venecos, culpables e inocentes"\nhttps://t.co/uWqLuEDLll</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Estados Unidos deporta 10 nuevos migrantes "criminales" a El Salvador https://t.co/uv2L6ArmL6</t>
+          <t>#OcurreAhora | Delincuentes de SMP se únen a 'chalacos': "Comenzaremos a eliminar venecos, culpables e inocentes" https://t.co/uWqLuEDLll</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -626,31 +630,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>74.8</v>
       </c>
       <c r="I5" t="n">
-        <v>703</v>
+        <v>1384271</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://t.co/uv2L6ArmL6</t>
+          <t>https://t.co/uWqLuEDLll</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-13 23:02:00.000</t>
+          <t>2025-04-12 01:40:29.000</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Estados Unidos deporta 10 nuevos migrantes "criminales" a El Salvador https://t.co/EDnk3aR9eb</t>
+          <t>#OcurreAhora | Congresista ante ola de extorsionadores extranjeros: "Ojalá que nuestros asesinos asesinen a esos mald***"\nhttps://t.co/6lu52BAqmy</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Estados Unidos deporta 10 nuevos migrantes "criminales" a El Salvador https://t.co/EDnk3aR9eb</t>
+          <t>#OcurreAhora | Congresista ante ola de extorsionadores extranjeros: "Ojalá que nuestros asesinos asesinen a esos mald***" https://t.co/6lu52BAqmy</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -666,31 +670,31 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>681</v>
+        <v>725912</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://t.co/EDnk3aR9eb</t>
+          <t>https://t.co/6lu52BAqmy</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-13 23:01:59.000</t>
+          <t>2025-04-12 01:23:36.000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Estados Unidos deporta 10 nuevos migrantes "criminales" a El Salvador https://t.co/lAO9ffEh3v</t>
+          <t>#OcurreAhora | Congresista ante ola de extorsionadores extranjeros: "Ojalá que nuestros asesinos asesinen a esos mald***"\nhttps://t.co/r2G8IhMycB</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Estados Unidos deporta 10 nuevos migrantes "criminales" a El Salvador https://t.co/lAO9ffEh3v</t>
+          <t>#OcurreAhora | Congresista ante ola de extorsionadores extranjeros: "Ojalá que nuestros asesinos asesinen a esos mald***" https://t.co/r2G8IhMycB</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -706,31 +710,31 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>28.9</v>
+        <v>73.2</v>
       </c>
       <c r="I7" t="n">
-        <v>7547</v>
+        <v>1384432</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://t.co/lAO9ffEh3v</t>
+          <t>https://t.co/r2G8IhMycB</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-13 23:01:59.000</t>
+          <t>2025-04-12 01:23:36.000</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Estados Unidos deporta 10 nuevos migrantes "criminales" a El Salvador https://t.co/9b8r5Wy0PB</t>
+          <t>#OcurreAhora | Congresista ante ola de extorsionadores extranjeros: "Ojalá que nuestros asesinos asesinen a esos mald***"\nhttps://t.co/pwVOyIlNR1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Estados Unidos deporta 10 nuevos migrantes "criminales" a El Salvador https://t.co/9b8r5Wy0PB</t>
+          <t>#OcurreAhora | Congresista ante ola de extorsionadores extranjeros: "Ojalá que nuestros asesinos asesinen a esos mald***" https://t.co/pwVOyIlNR1</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -746,31 +750,31 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I8" t="n">
-        <v>488</v>
+        <v>512502</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://t.co/9b8r5Wy0PB</t>
+          <t>https://t.co/pwVOyIlNR1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-13 23:01:59.000</t>
+          <t>2025-04-11 20:45:25.000</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Estados Unidos deporta 10 nuevos migrantes "criminales" a El Salvador https://t.co/VsppbndKS5</t>
+          <t>Una medida muy dura que demuestra el hartazgo del pueblo. Antes de asesinar inocentes recomiendo una advertencia a todos los que alquilan o dan trabajo a venezolanos.¡Quemen las guaridas!! https://t.co/HbL6s62juH</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Estados Unidos deporta 10 nuevos migrantes "criminales" a El Salvador https://t.co/VsppbndKS5</t>
+          <t>Una medida muy dura que demuestra el hartazgo del pueblo. Antes de asesinar inocentes recomiendo una advertencia a todos los que alquilan o dan trabajo a venezolanos.¡Quemen las guaridas!! https://t.co/HbL6s62juH</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -786,31 +790,31 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>42.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2311</v>
+        <v>12260</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://t.co/VsppbndKS5</t>
+          <t>https://t.co/HbL6s62juH</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-13 23:01:59.000</t>
+          <t>2025-04-11 20:21:15.000</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Estados Unidos deporta 10 nuevos migrantes "criminales" a El Salvador https://t.co/NEObriZCXo</t>
+          <t>Señooooooor quiero chicha Veneca</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Estados Unidos deporta 10 nuevos migrantes "criminales" a El Salvador https://t.co/NEObriZCXo</t>
+          <t>Señooooooor quiero chicha Veneca</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -826,31 +830,27 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3118</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>https://t.co/NEObriZCXo</t>
-        </is>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-13 23:01:58.000</t>
+          <t>2025-04-11 19:39:50.000</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Estados Unidos deporta 10 nuevos migrantes "criminales" a El Salvador https://t.co/3YIyz4XICc</t>
+          <t>Vaya, vaya. El empresariado nacional, el principal beneficiado del ingreso de millones de extranjeros usados como mano de obra barata, hoy nos dice que "se une a la lucha contra la inseguridad ciudadana".\n\nSí claro, después de destruir el mercado laboral del país. Yape carepalo. https://t.co/Wbl4eMWAre</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Estados Unidos deporta 10 nuevos migrantes "criminales" a El Salvador https://t.co/3YIyz4XICc</t>
+          <t>Vaya, vaya. El empresariado nacional, el principal beneficiado del ingreso de millones de extranjeros usados como mano de obra barata, hoy nos dice que "se une a la lucha contra la inseguridad ciudadana". Sí claro, después de destruir el mercado laboral del país. Yape carepalo. https://t.co/Wbl4eMWAre</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -866,31 +866,31 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>30.7</v>
+        <v>67</v>
       </c>
       <c r="I11" t="n">
-        <v>8943</v>
+        <v>16012</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://t.co/3YIyz4XICc</t>
+          <t>https://t.co/Wbl4eMWAre</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-13 21:50:52.000</t>
+          <t>2025-04-11 18:49:16.000</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>¿A dónde están yendo los inmigrantes deportados por Trump? Esto es lo que sabemos https://t.co/i5ibloHBWp</t>
+          <t>Cuando un peruano delinque nosotros asumimos culpas y pedimos las sanciones correspondientes\n\nCuando un veneco delinque ellos siempre buscan excusas como "la xenofobia", que "los buenos somos más", que "la delincuencia no tiene nacionalidad" etc\n\nNo somos iguales</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>¿A dónde están yendo los inmigrantes deportados por Trump? Esto es lo que sabemos https://t.co/i5ibloHBWp</t>
+          <t>Cuando un peruano delinque nosotros asumimos culpas y pedimos las sanciones correspondientes Cuando un veneco delinque ellos siempre buscan excusas como "la xenofobia", que "los buenos somos más", que "la delincuencia no tiene nacionalidad" etc No somos iguales</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -906,31 +906,27 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>42.9</v>
+        <v>10.8</v>
       </c>
       <c r="I12" t="n">
-        <v>35070</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>https://t.co/i5ibloHBWp</t>
-        </is>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-13 17:35:00.000</t>
+          <t>2025-04-11 18:25:17.000</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>¡Conmoción! 😰 El crimen de la maleta: Tren de Aragua sigue en Perú y estaría detrás del asesinato a joven venezolana.🚨\nhttps://t.co/MOvjIYFbKW</t>
+          <t>⚡#NUNCALOOLVIDAREMOS 🇵🇪 !!! SICARIOS VENEZOLANOS 🇻🇪 MILICOS de DIOSDADO CABELLO Asesinan a PERUANOS todos los dias en PERU y El GOBIERNO MARXISTA DEL PERU LO PERMITE !!! ☠️\nCheck out América Noticias's video! #TikTok https://t.co/xOe4sluflK</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>¡Conmoción! 😰 El crimen de la maleta: Tren de Aragua sigue en Perú y estaría detrás del asesinato a joven venezolana.🚨 https://t.co/MOvjIYFbKW</t>
+          <t>⚡#NUNCALOOLVIDAREMOS 🇵🇪 !!! SICARIOS VENEZOLANOS 🇻🇪 MILICOS de DIOSDADO CABELLO Asesinan a PERUANOS todos los dias en PERU y El GOBIERNO MARXISTA DEL PERU LO PERMITE !!! ☠️ Check out América Noticias's video! #TikTok https://t.co/xOe4sluflK</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -946,31 +942,31 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>36.1</v>
+        <v>20.3</v>
       </c>
       <c r="I13" t="n">
-        <v>11939</v>
+        <v>4457</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://t.co/MOvjIYFbKW</t>
+          <t>https://t.co/xOe4sluflK</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-13 15:05:50.000</t>
+          <t>2025-04-11 17:49:06.000</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>¿Qué hace migraciones para deportar presos y delincuentes venezolanos? Nada @MigracionesPe</t>
+          <t>Y bueno bienvenidos a la temporada 2025 de ''Hay que matar a los venecos'' no es joda, pasa todos los putos años...</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>¿Qué hace migraciones para deportar presos y delincuentes venezolanos? Nada @MigracionesPe</t>
+          <t>Y bueno bienvenidos a la temporada 2025 de ''Hay que matar a los venecos'' no es joda, pasa todos los putos años...</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -989,24 +985,24 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-13 14:10:04.000</t>
+          <t>2025-04-11 14:48:23.000</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>🔵 Congresista Martínez propone que delincuentes nacionales asesinen a delincuentes extranjeros ‼️😱 \n#viral_video #fyp #estudiantesdederecho #CongresoPeruano #Martínez #Delincuencia #SeguridadCiudadana #JusticiaPeruana #PolíticaPeruana #Xenofobia #DerechosHumanos https://t.co/qGS3PgZxuq</t>
+          <t>🚨 El congresista Edwin Martínez pide "asesinen" a extranjeros ilegales durante un pleno sobre seguridad ciudadana al afirmar que hay 1.2 millones de extranjeros "ilegales" vinculados con delitos graves como el sicariato y la violación. https://t.co/fdHVTvtIp3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>🔵 Congresista Martínez propone que delincuentes nacionales asesinen a delincuentes extranjeros ‼️😱 #viral_video #fyp #estudiantesdederecho #CongresoPeruano #Martínez #Delincuencia #SeguridadCiudadana #JusticiaPeruana #PolíticaPeruana #Xenofobia #DerechosHumanos https://t.co/qGS3PgZxuq</t>
+          <t>🚨 El congresista Edwin Martínez pide "asesinen" a extranjeros ilegales durante un pleno sobre seguridad ciudadana al afirmar que hay 1.2 millones de extranjeros "ilegales" vinculados con delitos graves como el sicariato y la violación. https://t.co/fdHVTvtIp3</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1025,28 +1021,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>1521</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://t.co/qGS3PgZxuq</t>
+          <t>https://t.co/fdHVTvtIp3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-13 13:12:14.000</t>
+          <t>2025-04-11 13:39:38.000</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Trump deportando y devolviendo extranjeros a su país y los ZDM , gritándole dictador y otras perlas \nEl socialista Sánchez de España deportando a peruanos a su país y los ZDM calladitos así de doble moral son esos ZHDP https://t.co/LJdOQ2BCzB</t>
+          <t>La extorsion no es nueva en el Peru\n\nLa extorsión existía antes de los Venezolanos criminales\n\nPero eso que era malo, se le puso esteroides con los chamos criminales, que pusieron otro nivel de violencia en las calles\n\nAhora los malandros peruanos reclaman su “espacio” invadido por los areperos del mal.\n\nY lo  malo se hizo peor! Con una fiscalia de mierda y una policia 20% inútil, 20% corrupta y 60% atada de manos por las leyes y los derechos humanos que los persiguen a morir si tocan a los criminales.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Trump deportando y devolviendo extranjeros a su país y los ZDM , gritándole dictador y otras perlas El socialista Sánchez de España deportando a peruanos a su país y los ZDM calladitos así de doble moral son esos ZHDP https://t.co/LJdOQ2BCzB</t>
+          <t>La extorsion no es nueva en el Peru La extorsión existía antes de los Venezolanos criminales Pero eso que era malo, se le puso esteroides con los chamos criminales, que pusieron otro nivel de violencia en las calles Ahora los malandros peruanos reclaman su “espacio” invadido por los areperos del mal. Y lo malo se hizo peor! Con una fiscalia...</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1062,31 +1058,27 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="I16" t="n">
-        <v>980</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>https://t.co/LJdOQ2BCzB</t>
-        </is>
-      </c>
+        <v>13582</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-13 06:56:39.000</t>
+          <t>2025-04-11 13:31:22.000</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pero veo a mi veneca y me gusta jugar local 😅.</t>
+          <t>#ATVNoticiasMatinal | La mujer fue raptada y luego asesinada por sus verdugos.\nhttps://t.co/e3po40jxNW</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pero veo a mi veneca y me gusta jugar local 😅.</t>
+          <t>#ATVNoticiasMatinal | La mujer fue raptada y luego asesinada por sus verdugos. https://t.co/e3po40jxNW</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1102,27 +1094,31 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>67.7</v>
       </c>
       <c r="I17" t="n">
-        <v>1647</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>726027</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://t.co/e3po40jxNW</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-04-13 04:12:32.000</t>
+          <t>2025-04-11 13:24:22.000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#ALERTA ¡OTRO FRACASO DE #DINABOLUARTE Y SU INOPERANTE #CUARTELDEGUERRA!\nA los asesinados  ya señalados durante el día de hoy. \nHace unos momentos en el distrito de  #Ventanilla,  acaban de disparar a un chofer de la empresa de transportes #TRANSLICSA cuando circulaba con bastantes pasajeros y en ese mismo distrito, en extrañas circunstancias 2 ciudadanos venezolanos fueron  asesinados, sus cuerpos quedaron tendidos en plena vía pública\n\nEs indudable que la delincuencia y el crimen organizado DERROTARON  a cualquier "estrategia" emanadas de   @presidenciaperu, @MininterPeru\ny  la @pcmperu, dejando a los peruanos  desamparados y llorando a sus muertos sin esperar alcanzar justicia.\n\nNo tenemos #ministrodelInterior , pq llegó con la nefasta estrategia de su ex jefe, Juan José #Santivañez.\n\nMientras tanto, el @congresoperu  sigue legislando a favor de organizaciones criminales que ahora podrán mantener  en su poder los  bienes de origen ilícito hasta que una sentencia judicial quede "firme" y recién pase a manos del Estado (pérdida de dominio).\n#BastaDeMentiras\n#FueraDina \n#Perú \n#EstadoDe8Emergencia</t>
+          <t>#ATVNoticiasMatinal | La mujer fue raptada y luego asesinada por sus verdugos.\nhttps://t.co/M0YxmhIcTE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>...ciudadanos venezolanos fueron asesinados, sus cuerpos quedaron tendidos en plena vía pública Es indudable que la delincuencia y el crimen organizado DERROTARON a cualquier "estrategia" emanadas de @presidenciaperu, @MininterPeru y la @pcmperu, dejando a los peruanos desamparados y llorando a sus muertos sin esperar alcanzar justicia. No tenemos...</t>
+          <t>#ATVNoticiasMatinal | La mujer fue raptada y luego asesinada por sus verdugos. https://t.co/M0YxmhIcTE</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1138,27 +1134,31 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>39.1</v>
+        <v>64.8</v>
       </c>
       <c r="I18" t="n">
-        <v>8386</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>512515</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://t.co/M0YxmhIcTE</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-04-13 00:26:08.000</t>
+          <t>2025-04-11 13:24:22.000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Una forma de definir el cáncer, el ver los cambios que acaba de hacer el Veneco maldito ese.</t>
+          <t>#ATVNoticiasMatinal | La mujer fue raptada y luego asesinada por sus verdugos.\nhttps://t.co/d3iE8gIw6P</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Una forma de definir el cáncer, el ver los cambios que acaba de hacer el Veneco maldito ese.</t>
+          <t>#ATVNoticiasMatinal | La mujer fue raptada y luego asesinada por sus verdugos. https://t.co/d3iE8gIw6P</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1174,27 +1174,31 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>73.2</v>
       </c>
       <c r="I19" t="n">
-        <v>467</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>1384260</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://t.co/d3iE8gIw6P</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-12 22:58:50.000</t>
+          <t>2025-04-11 13:07:33.000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Acaban de balear una persona en brígida silva en San Miguel , en una barbería donde hay harto venezolano , por favor expulsión</t>
+          <t>@CNNEE Ana Maria Mejia de CNN en español con la usual cara de indignación impuesta por CNN habla de “supuestos” criminales en el CECOT de El Salvador. El asesino pandillero inmigrante entrevistado luego ante cámaras dice sin arrepentimiento y con orgullo que “mato a 50 personas” 😳\nViva CECOT/El Salvador !</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Acaban de balear una persona en brígida silva en San Miguel , en una barbería donde hay harto venezolano , por favor expulsión</t>
+          <t>@CNNEE Ana Maria Mejia de CNN en español con la usual cara de indignación impuesta por CNN habla de “supuestos” criminales en el CECOT de El Salvador. El asesino pandillero inmigrante entrevistado luego ante cámaras dice sin arrepentimiento y con orgullo que “mato a 50 personas” 😳 Viva CECOT/El Salvador !</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1210,27 +1214,27 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>618</v>
+        <v>46</v>
       </c>
       <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-12 18:27:35.000</t>
+          <t>2025-04-11 12:34:15.000</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Este el infierno aéreo que viven inmigrantes en vuelos de deportación desde EE.UU.: ICE y su polémico protocolo, al descubierto https://t.co/s7RVDziLJX</t>
+          <t>Hoy en Bunker: paro nacional acatado al 100% 🚛💥, Dina se atrinchera en su “cuarto de guerra” 🫡 y dice que “no es responsabilidad de la presidenta” 🙃, en el Congreso proponen que “los peruanos maten a los asesinos venezolanos” 🔫, mientras el fujimorismo le da una manito a Dina ✋🧡, López Aliaga grita que “nos están disparando en la cara” 😤 y mientras La Libertad se desangra 🩸, César Acuña inaugura su estadio 🎉⚽ — ah, y conversamos con el Dr. Luciano López 📚⚖️.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Este el infierno aéreo que viven inmigrantes en vuelos de deportación desde EE.UU.: ICE y su polémico protocolo, al descubierto https://t.co/s7RVDziLJX</t>
+          <t>Hoy en Bunker: paro nacional acatado al 100% 🚛💥, Dina se atrinchera en su “cuarto de guerra” 🫡 y dice que “no es responsabilidad de la presidenta” 🙃, en el Congreso proponen que “los peruanos maten a los asesinos venezolanos” 🔫, mientras el fujimorismo le da una manito a Dina ✋🧡, López Aliaga grita que “nos están disparando en la cara” 😤 y...</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1246,31 +1250,27 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>42.9</v>
+        <v>71</v>
       </c>
       <c r="I21" t="n">
-        <v>35078</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>https://t.co/s7RVDziLJX</t>
-        </is>
-      </c>
+        <v>528586</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-12 18:17:19.000</t>
+          <t>2025-04-11 10:35:03.000</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>En el Perú 🇵🇪 llegó la hora de deportar a los venezolanos que nos han hecho daño de inmediato sin miramientos \nTenemos que limpiar nuestro país de lacras que solo han traído delincuencia prostitucion no han sumado nada más bien hemos retrocedido</t>
+          <t>Congresista @EdwinMartinezT6 : "Que nuestros asesinos (peruanos) asesinen a esos malditos (sicarios extranjeros)" ... https://t.co/PnkeEaCnfB</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>En el Perú 🇵🇪 llegó la hora de deportar a los venezolanos que nos han hecho daño de inmediato sin miramientos Tenemos que limpiar nuestro país de lacras que solo han traído delincuencia prostitucion no han sumado nada más bien hemos retrocedido</t>
+          <t>Congresista @EdwinMartinezT6 : "Que nuestros asesinos (peruanos) asesinen a esos malditos (sicarios extranjeros)" ... https://t.co/PnkeEaCnfB</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1286,27 +1286,31 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>37.1</v>
+        <v>41.5</v>
       </c>
       <c r="I22" t="n">
-        <v>766</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>20877</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://t.co/PnkeEaCnfB</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-12 18:04:20.000</t>
+          <t>2025-04-11 05:51:40.000</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>El presidente de Estados Unidos, Donald Trump, recibirá en la Casa Blanca a su homólogo salvadoreño, Nayib Bukele, quien se ha plegado a las exigencias del republicano de acoger migrantes deportados. https://t.co/mqpYx9EJMk https://t.co/x5GrzQcnyF</t>
+          <t>9-0 \nLa corte suprema estadounidense falla  contra la administración Trump y ordena que Armando Abrevo García, el venezolano deportado a El Salvador le sea facilitado su regreso a Maryland 🇺🇸 de donde fue secuestrado teniendo protección judicial. https://t.co/evksBowhQ3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>El presidente de Estados Unidos, Donald Trump, recibirá en la Casa Blanca a su homólogo salvadoreño, Nayib Bukele, quien se ha plegado a las exigencias del republicano de acoger migrantes deportados. https://t.co/mqpYx9EJMk https://t.co/x5GrzQcnyF</t>
+          <t>9-0 La corte suprema estadounidense falla contra la administración Trump y ordena que Armando Abrevo García, el venezolano deportado a El Salvador le sea facilitado su regreso a Maryland 🇺🇸 de donde fue secuestrado teniendo protección judicial. https://t.co/evksBowhQ3</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1322,31 +1326,31 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>68.2</v>
+        <v>28.4</v>
       </c>
       <c r="I23" t="n">
-        <v>775878</v>
+        <v>7214</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://t.co/mqpYx9EJMk</t>
+          <t>https://t.co/evksBowhQ3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-12 16:41:09.000</t>
+          <t>2025-04-11 02:43:04.000</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>@congresoperu QUE TENEMOS EN EL PERÚ BASTA DE SER ALCAHUETES DE LOS EXTRANJEROS LADRONES NUNCA SE A LLEGADO A TAL CRIMINALIDAD AQUI LA SOLUCION ES QUE PONGAN GENTE CAPACITADA DE INTELIGENCIA Y ACABAR CON LOS DELINCUENTES SEÑORES NO SEAN COMPLICES DE POR NO https://t.co/EAQymxAji7</t>
+          <t>Toy triste, I need you and i need hamburguesa del veneco en la Verma de la av perú :(</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>@congresoperu QUE TENEMOS EN EL PERÚ BASTA DE SER ALCAHUETES DE LOS EXTRANJEROS LADRONES NUNCA SE A LLEGADO A TAL CRIMINALIDAD AQUI LA SOLUCION ES QUE PONGAN GENTE CAPACITADA DE INTELIGENCIA Y ACABAR CON LOS DELINCUENTES SEÑORES NO SEAN COMPLICES DE POR NO https://t.co/EAQymxAji7</t>
+          <t>Toy triste, I need you and i need hamburguesa del veneco en la Verma de la av perú :(</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1365,28 +1369,24 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>12</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>https://t.co/EAQymxAji7</t>
-        </is>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-12 16:39:21.000</t>
+          <t>2025-04-11 02:39:33.000</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>@congresoperu ESTE PERUANO LO MATEN PORQUE EL DELINCUENTE SABE QUE ESTE DENUNCIARA EL ROBO ES LA ESTUPIDEZ MAS GRANDE Y EL STICKER IGUAL DE ESTUPIDO MATARAN A LOS SUEÑOS DE LAS MOTOS PARA QUE NO DENUNCIEN LO QUE SE DEBE HACER ES VOTAR TANTO MALANDRO VENECO https://t.co/EAQymxAji7</t>
+          <t>Como lo amo a este tipo. \nMe va a doler cusndo se vaya al extranjero https://t.co/u4eAPsaV2A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>@congresoperu ESTE PERUANO LO MATEN PORQUE EL DELINCUENTE SABE QUE ESTE DENUNCIARA EL ROBO ES LA ESTUPIDEZ MAS GRANDE Y EL STICKER IGUAL DE ESTUPIDO MATARAN A LOS SUEÑOS DE LAS MOTOS PARA QUE NO DENUNCIEN LO QUE SE DEBE HACER ES VOTAR TANTO MALANDRO VENECO https://t.co/EAQymxAji7</t>
+          <t>Como lo amo a este tipo. Me va a doler cusndo se vaya al extranjero https://t.co/u4eAPsaV2A</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1405,28 +1405,28 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://t.co/EAQymxAji7</t>
+          <t>https://t.co/u4eAPsaV2A</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-08 02:48:56.000</t>
+          <t>2025-04-11 02:30:20.000</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Venezuela 🇻🇪 \n\nAsí te quieren estafar en Venezuela, no sigan cayendo en estos pendejos.\n\n#Venezuela #Venezolanos #Zulia #Maracay #Maracaibo #Miranda #LaGuaira #Lecheria #Barcelona https://t.co/zqbZL2AMsx</t>
+          <t>lo sospechoso que me resulta ver a 2 venecos a bordo de una moto me hace ponerme en alerta, ¿a quien mas le pasa esto?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Venezuela 🇻🇪 Así te quieren estafar en Venezuela, no sigan cayendo en estos pendejos. #Venezuela #Venezolanos #Zulia #Maracay #Maracaibo #Miranda #LaGuaira #Lecheria #Barcelona https://t.co/zqbZL2AMsx</t>
+          <t>lo sospechoso que me resulta ver a 2 venecos a bordo de una moto me hace ponerme en alerta, ¿a quien mas le pasa esto?</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1442,31 +1442,27 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>76.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>253614</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>https://t.co/zqbZL2AMsx</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-08 00:02:48.000</t>
+          <t>2025-04-11 02:22:14.000</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>"La Corte Suprema dictaminó que la administración Trump podría continuar deportando a inmigrantes venezolanos basándose en una ley de poderes en tiempos de guerra, revocando el fallo de un tribunal inferior que puso un alto temporal a las deportaciones"\n\nhttps://t.co/2hq5aPWS7q</t>
+          <t>Nuestras "INFLUNCERS" son un completo asco.\n\nEstá loca de mierda la siguen miles de seguidores..\n \nVenezuela está muy mal socialmente.\n\n#Venezuela #Venezolanos #Caracas #Zulia #Maracaibo #Maracay #Merida https://t.co/aKmvBz662O</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"La Corte Suprema dictaminó que la administración Trump podría continuar deportando a inmigrantes venezolanos basándose en una ley de poderes en tiempos de guerra, revocando el fallo de un tribunal inferior que puso un alto temporal a las deportaciones" https://t.co/2hq5aPWS7q</t>
+          <t>Nuestras "INFLUNCERS" son un completo asco. Está loca de mierda la siguen miles de seguidores.. Venezuela está muy mal socialmente. #Venezuela #Venezolanos #Caracas #Zulia #Maracaibo #Maracay #Merida https://t.co/aKmvBz662O</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1482,31 +1478,31 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>36.6</v>
+        <v>62.6</v>
       </c>
       <c r="I27" t="n">
-        <v>14759</v>
+        <v>129429</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://t.co/2hq5aPWS7q</t>
+          <t>https://t.co/aKmvBz662O</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-07 23:27:31.000</t>
+          <t>2025-04-11 01:48:38.000</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Corte Suprema de EE. UU. respalda a Trump y da luz verde para deportar a venezolanos de manera sumaria bajo la Ley de Enemigos Extranjeros</t>
+          <t>Hilo: 1/6 🚨 Me preocupa profundamente la reciente declaración del congresista Edwin Martínez (@EdwinMartinezT6) quien pidió que “nuestros asesinos asesinen” y culpó a los migrantes de la criminalidad en el país. Eso es inaceptable. 🧵</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Corte Suprema de EE. UU. respalda a Trump y da luz verde para deportar a venezolanos de manera sumaria bajo la Ley de Enemigos Extranjeros</t>
+          <t>Hilo: 1/6 🚨 Me preocupa profundamente la reciente declaración del congresista Edwin Martínez (@EdwinMartinezT6) quien pidió que “nuestros asesinos asesinen” y culpó a los migrantes de la criminalidad en el país. Eso es inaceptable. 🧵</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1522,27 +1518,27 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>41.8</v>
+        <v>16.8</v>
       </c>
       <c r="I28" t="n">
-        <v>20286</v>
+        <v>390</v>
       </c>
       <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-07 21:51:36.000</t>
+          <t>2025-04-11 01:11:31.000</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Un economista venezolano manifiesta que sus predicciones e hipótesis económicas le viene desde arriba; imaginen si tuviéramos uno así en el BCRP. Pobre país. https://t.co/VLxi1YUS87</t>
+          <t>Si alguien tiene la imagen del gatito que dice venezolanos fuera de mi país pásenmela pls</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Un economista venezolano manifiesta que sus predicciones e hipótesis económicas le viene desde arriba; imaginen si tuviéramos uno así en el BCRP. Pobre país. https://t.co/VLxi1YUS87</t>
+          <t>Si alguien tiene la imagen del gatito que dice venezolanos fuera de mi país pásenmela pls</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1561,28 +1557,24 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1598</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>https://t.co/VLxi1YUS87</t>
-        </is>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-07 20:02:02.000</t>
+          <t>2025-04-11 01:04:59.000</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>🇵🇪 #CuartoDeGuerra | La presidenta de la república, Dina Ercilia Boluarte Zegarra, lideró una nueva sesión junto a los altos mandos de la Policía Nacional, las Fuerzas Armadas y ministros de Estado, reafirmando el compromiso del Gobierno en la lucha frontal contra la delincuencia.\n\n🔹 Policía ya está tras extorsionadores que siembran el terror en el Cono Norte.\n\nLa mandataria expresó sus condolencias a los familiares de los conductores asesinados en los últimos días.\n\n🔹 Resultados de la emergencia en Lima y Callao en las últimas 24 horas:\n\n👮 Operativos policiales:\n✅ Efectivos desplegados: 1819 policías\n✅ Operativos ejecutados: 508\n✅ Detenidos: 283 (257 peruanos y 26 extranjeros)\n✅ Intervenciones a requisitoriados: 38\n\n🎖️ Acciones de las Fuerzas Armadas:\n✅ Efectivos desplegados: 4470\n✅ Patrullajes realizados: 411\n\nEl Gobierno sigue firme y decidido en su misión de recuperar la seguridad y devolver la paz a todos los peruanos.\n\n#PonlePunchePerú 💪</t>
+          <t>Congresista Edwin Martínez encuentra la ‘solución’ contra la criminalidad: “Que nuestros asesinos maten a los asesinos extranjeros” [VIDEO]@congresoperu @EdwinMartinezT6  https://t.co/cmGGlZpqlG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>...en el Cono Norte. La mandataria expresó sus condolencias a los familiares de los conductores asesinados en los últimos días. 🔹 Resultados de la emergencia en Lima y Callao en las últimas 24 horas: 👮 Operativos policiales: ✅ Efectivos desplegados: 1819 policías ✅ Operativos ejecutados: 508 ✅ Detenidos: 283 (257 peruanos y 26 extranjeros) ✅...</t>
+          <t>Congresista Edwin Martínez encuentra la ‘solución’ contra la criminalidad: “Que nuestros asesinos maten a los asesinos extranjeros” [VIDEO]@congresoperu @EdwinMartinezT6 https://t.co/cmGGlZpqlG</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1598,27 +1590,31 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>82.90000000000001</v>
+        <v>36.5</v>
       </c>
       <c r="I30" t="n">
-        <v>4711</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>14527</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://t.co/cmGGlZpqlG</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-07 15:00:06.000</t>
+          <t>2025-04-10 23:32:53.000</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>el sabado una señora me pregunto si tenia hijos y le invente q tenia dos niñas de 5 y 7 q me habia separado q hice juicio al papa de los hijos y q este salia con una veneca q ojala no se embaraze, todo para seguirle al chisme xDDDD aych</t>
+          <t>#ParoDeTransportistas: Hoy es un buen día para recordar hitos históricos de la unidad del Sur; donde Arequipa, Puno, Ayacucho, Tacna, Cusco, etc se unieron contra #DinaAsesina. Un hito que jamás será olvidado.\n\n#TAG: federico salazar #NoQueremosMorir #QueSeVayanTodos venezolanos https://t.co/fuYZ4FlBFE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>el sabado una señora me pregunto si tenia hijos y le invente q tenia dos niñas de 5 y 7 q me habia separado q hice juicio al papa de los hijos y q este salia con una veneca q ojala no se embaraze, todo para seguirle al chisme xDDDD aych</t>
+          <t>#ParoDeTransportistas: Hoy es un buen día para recordar hitos históricos de la unidad del Sur; donde Arequipa, Puno, Ayacucho, Tacna, Cusco, etc se unieron contra #DinaAsesina. Un hito que jamás será olvidado. #TAG: federico salazar #NoQueremosMorir #QueSeVayanTodos venezolanos https://t.co/fuYZ4FlBFE</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1634,27 +1630,31 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>44.3</v>
+        <v>61.4</v>
       </c>
       <c r="I31" t="n">
-        <v>1940</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>72268</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://t.co/fuYZ4FlBFE</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-07 14:05:47.000</t>
+          <t>2025-04-10 23:18:30.000</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Venecos de @atajoslargos no es un libro de relatos sobre la migración venezolana, sino sobre venezolanos, dentro o fuera de su país, que experimentan la ruptura y la descolocación propias del ser humano. Su condición no es la extranjería, sino el extravío y el espectro literario. https://t.co/BJ0eaSuZyD</t>
+          <t>🔴 [4K] NO CREERÁS CÓMO QUEDÓ LA VIA EXPRESA SUR ✅ ► https://t.co/WlAhNsYyNg\n\nVenezolanos #ParoDeTransportistas Larcomar Nueva York Dina Boluarte</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Venecos de @atajoslargos no es un libro de relatos sobre la migración venezolana, sino sobre venezolanos, dentro o fuera de su país, que experimentan la ruptura y la descolocación propias del ser humano. Su condición no es la extranjería, sino el extravío y el espectro literario. https://t.co/BJ0eaSuZyD</t>
+          <t>🔴 [4K] NO CREERÁS CÓMO QUEDÓ LA VIA EXPRESA SUR ✅ ► https://t.co/WlAhNsYyNg Venezolanos #ParoDeTransportistas Larcomar Nueva York Dina Boluarte</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1670,31 +1670,31 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>49.8</v>
+        <v>19.5</v>
       </c>
       <c r="I32" t="n">
-        <v>46006</v>
+        <v>2749</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://t.co/BJ0eaSuZyD</t>
+          <t>https://t.co/WlAhNsYyNg\n\nVenezolanos</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-07 14:03:14.000</t>
+          <t>2025-04-10 23:12:58.000</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mi profe es veneco ptm 😭</t>
+          <t>MIGRACIONES DEL PERU EXPULSA A EXTRANJEROS ILEGALES.\nUn grupo de 36 ilegales,en su mayoria venezolanos,fueron expulsados del territorio peruano por no tener documentos de manera legal. 🇵🇪💪😎 https://t.co/AvSoeT9Nwp</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mi profe es veneco ptm 😭</t>
+          <t>MIGRACIONES DEL PERU EXPULSA A EXTRANJEROS ILEGALES. Un grupo de 36 ilegales,en su mayoria venezolanos,fueron expulsados del territorio peruano por no tener documentos de manera legal. 🇵🇪💪😎 https://t.co/AvSoeT9Nwp</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1713,24 +1713,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>301</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>625</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>https://t.co/AvSoeT9Nwp</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-06 23:58:48.000</t>
+          <t>2025-04-10 23:12:02.000</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mete gente rápida por las bandas, y que Teo Juege detrás de Bacca, malparido veneco hijueputa.</t>
+          <t>"Ojalá que nuestros asesinos asesinen a los asesinos extranjeros..." Faltó que diga y Arriba Perú. \nParece broma pero no lo es. \nNada más que agregar a lo que es nuestra clase política.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mete gente rápida por las bandas, y que Teo Juege detrás de Bacca, malparido veneco hijueputa.</t>
+          <t>"Ojalá que nuestros asesinos asesinen a los asesinos extranjeros..." Faltó que diga y Arriba Perú. Parece broma pero no lo es. Nada más que agregar a lo que es nuestra clase política.</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1746,27 +1750,27 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>17.7</v>
+        <v>70.3</v>
       </c>
       <c r="I34" t="n">
-        <v>466</v>
+        <v>989681</v>
       </c>
       <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-04-06 19:47:00.000</t>
+          <t>2025-04-10 22:40:55.000</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>¿Por qué el inmigrante que fue deportado por error a El Salvador aún no regresa a Estados Unidos? https://t.co/8BumOsu9xH</t>
+          <t>Todos los delivery q pido siempre me tocan los venecos esq no hay peruanos o q 😭 miedooo</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>¿Por qué el inmigrante que fue deportado por error a El Salvador aún no regresa a Estados Unidos? https://t.co/8BumOsu9xH</t>
+          <t>Todos los delivery q pido siempre me tocan los venecos esq no hay peruanos o q 😭 miedooo</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1782,31 +1786,27 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>42.9</v>
+        <v>37</v>
       </c>
       <c r="I35" t="n">
-        <v>35102</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>https://t.co/8BumOsu9xH</t>
-        </is>
-      </c>
+        <v>15627</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-04-06 13:58:55.000</t>
+          <t>2025-04-10 22:25:59.000</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Esas son las lacras venecas que el idiota .@EmmaRincon quiere que abracemos y tratemos con amor.\nA ver si construimos una cárcel en una isla y encerramos para siempre a todos esos primates venecos que no sirven para nada.\n\n.@pcmperu .@MininterPeru .@presidenciaperu .@congresoperu https://t.co/rTRDxLdzmw</t>
+          <t>Congresista Edwin Martínez encuentra la ‘solución’ contra la criminalidad: “Que nuestros asesinos maten a los asesinos extranjeros” [VIDEO] @congresoperu @EdwinMartinezT6  https://t.co/cmGGlZpYbe</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Esas son las lacras venecas que el idiota .@EmmaRincon quiere que abracemos y tratemos con amor. A ver si construimos una cárcel en una isla y encerramos para siempre a todos esos primates venecos que no sirven para nada. .@pcmperu .@MininterPeru .@presidenciaperu .@congresoperu https://t.co/rTRDxLdzmw</t>
+          <t>Congresista Edwin Martínez encuentra la ‘solución’ contra la criminalidad: “Que nuestros asesinos maten a los asesinos extranjeros” [VIDEO] @congresoperu @EdwinMartinezT6 https://t.co/cmGGlZpYbe</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1822,14 +1822,1054 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>41.9</v>
+        <v>36.5</v>
       </c>
       <c r="I36" t="n">
-        <v>19410</v>
+        <v>14528</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://t.co/rTRDxLdzmw</t>
+          <t>https://t.co/cmGGlZpYbe</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:24:22.000</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>-Prohibir el uso de motos (horarios)\n- Blindar los buses de servicio público \n- Que los asesinos peruanos maten a los asesinos venezolanos \n\nCuál es la estupidez de hoy?  actualicen por favor</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>-Prohibir el uso de motos (horarios) - Blindar los buses de servicio público - Que los asesinos peruanos maten a los asesinos venezolanos Cuál es la estupidez de hoy? actualicen por favor</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="I37" t="n">
+        <v>25704</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-04-10 21:59:16.000</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>GUERRA SIN CUARTEL!!\nBandidos del callao amenazan a los delicuentes venezolanos. 🫵 https://t.co/0IxPChazk7</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>GUERRA SIN CUARTEL!! Bandidos del callao amenazan a los delicuentes venezolanos. 🫵 https://t.co/0IxPChazk7</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>625</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>https://t.co/0IxPChazk7</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-04-10 21:59:00.000</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>#ParoDeTransportistas #ParoNacional \nCongresista de Acción Popular espera que asesinos peruanos eliminen a sicarios extranjeros https://t.co/ANMCC1SsHz</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>#ParoDeTransportistas #ParoNacional Congresista de Acción Popular espera que asesinos peruanos eliminen a sicarios extranjeros https://t.co/ANMCC1SsHz</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2867</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>https://t.co/ANMCC1SsHz</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-04-10 21:53:46.000</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>🟡⚫️ #DiarioViral | 🚨 👉 El #congresista #EdwinMartínez expresó su preocupación por la creciente ola de #criminalidad que azota al #país y pidió a los #delincuentes peruanos para #asesinar a los otros #criminales #extranjeros. 👨😱🚔👮‍♂️ https://t.co/dy96Y4oEUY</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>🟡⚫️ #DiarioViral | 🚨 👉 El #congresista #EdwinMartínez expresó su preocupación por la creciente ola de #criminalidad que azota al #país y pidió a los #delincuentes peruanos para #asesinar a los otros #criminales #extranjeros. 👨😱🚔👮‍♂️ https://t.co/dy96Y4oEUY</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>272</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://t.co/dy96Y4oEUY</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-04-10 21:09:45.000</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Desaparecieron los venecos del callao, y la palomillada en la calle dominando, xq xuxa los demás distritos no hacen lo mismo, aquí no se juega con los chalacos</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Desaparecieron los venecos del callao, y la palomillada en la calle dominando, xq xuxa los demás distritos no hacen lo mismo, aquí no se juega con los chalacos</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>467</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-04-10 20:40:18.000</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Delicuentes Venezolanos los expulsan del Perú , lo dejan en la frontera y mandan besitos volados</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Delicuentes Venezolanos los expulsan del Perú , lo dejan en la frontera y mandan besitos volados</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>340</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-04-10 20:21:05.000</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Primero propone deportar a todos los inmigrantes ilegales, sin matices ni humanidad.\nDespués llama a “nuestros asesinos” a matar delincuentes en su lugar.\n¿Eso es lo que se espera de un congresista?\nNo es valentía ni solución: es populismo violento disfrazado de justicia. https://t.co/59NUyuQTxn</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Primero propone deportar a todos los inmigrantes ilegales, sin matices ni humanidad. Después llama a “nuestros asesinos” a matar delincuentes en su lugar. ¿Eso es lo que se espera de un congresista? No es valentía ni solución: es populismo violento disfrazado de justicia. https://t.co/59NUyuQTxn</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>https://t.co/59NUyuQTxn</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-04-10 19:52:34.000</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Congresista Edwin Martínez propone más violencia: pide que "nuestros asesinos" ataquen a los delincuentes extorsionadores\n\nDurante la sesión del Pleno, el parlamentario pidió que delincuentes nacionales eliminen a extranjeros.\n\nhttps://t.co/CUoqhNboLJ</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Congresista Edwin Martínez propone más violencia: pide que "nuestros asesinos" ataquen a los delincuentes extorsionadores Durante la sesión del Pleno, el parlamentario pidió que delincuentes nacionales eliminen a extranjeros. https://t.co/CUoqhNboLJ</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3808946</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>https://t.co/CUoqhNboLJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-04-10 19:30:26.000</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Los venecos aumentan mi xenofobia</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Los venecos aumentan mi xenofobia</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>140</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-04-10 19:23:11.000</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Así funciona la ley de 1798 de “Enemigos Extranjeros” para acelerar deportaciones de venezolanos en Estados Unidos https://t.co/AEhTZK18sb</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Así funciona la ley de 1798 de “Enemigos Extranjeros” para acelerar deportaciones de venezolanos en Estados Unidos https://t.co/AEhTZK18sb</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="I46" t="n">
+        <v>35084</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>https://t.co/AEhTZK18sb</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-04-10 18:38:08.000</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>arriba la xenofobia contra los venecos</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>arriba la xenofobia contra los venecos</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>56</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-04-10 18:02:59.000</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>#ParoDeTransportistas 😡🇵🇪¿Hasta cuándo vamos a soportar que la criminalidad no gane la batalla? ¿Dónde están nuestras Fuerzas Armadas? ¿Qué carajo esperan nuestras autoridades? ¿Que mueran mas peruanos a manos de extranjeros asesinos? Ya es intolerable esto. El Perú primero. https://t.co/iy3qTOcXGF</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>#ParoDeTransportistas 😡🇵🇪¿Hasta cuándo vamos a soportar que la criminalidad no gane la batalla? ¿Dónde están nuestras Fuerzas Armadas? ¿Qué carajo esperan nuestras autoridades? ¿Que mueran mas peruanos a manos de extranjeros asesinos? Ya es intolerable esto. El Perú primero. https://t.co/iy3qTOcXGF</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2211</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>https://t.co/iy3qTOcXGF</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-04-10 17:44:36.000</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>" Que nuestros delincuentes asesinexn a los delincuentes extranjeros"\nOtra genialidad de nuestros paupérrimos congresistas para acabar con la inseguridad ciudadana.\nPrimero Cueto pide que los choferes utilicen lunas antibalas y ahora esto.\nUn fracaso del estado, imperdonable. https://t.co/Vacfsw2Ecy</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>" Que nuestros delincuentes asesinexn a los delincuentes extranjeros" Otra genialidad de nuestros paupérrimos congresistas para acabar con la inseguridad ciudadana. Primero Cueto pide que los choferes utilicen lunas antibalas y ahora esto. Un fracaso del estado, imperdonable. https://t.co/Vacfsw2Ecy</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>13706</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>https://t.co/Vacfsw2Ecy</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-04-10 17:37:13.000</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Gente si no están viendo las noticias les aconsejo q lo hagan,ahorita están transmitiendo en vivo la protesta y escuchas a estas personas,trabajadoras y esforzadas y he escuchado mejores argumentos ahí q en el congreso,resumen:HAGAN ALGO CON LOS VENEZOLANOS\n#ParoDeTransportistas</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Gente si no están viendo las noticias les aconsejo q lo hagan,ahorita están transmitiendo en vivo la protesta y escuchas a estas personas,trabajadoras y esforzadas y he escuchado mejores argumentos ahí q en el congreso,resumen:HAGAN ALGO CON LOS VENEZOLANOS #ParoDeTransportistas</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>933</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-04-10 16:39:29.000</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>#ParoDeTransportistas respta. ante tanta muerte y este gobierno sin hacer nada Armonía 10 SUNAT Consejo de Ministros Venezolanos Nazis Fuerzas Armadas FUERZA CRISTAL @angeltorres4283 @DiegoCortazar98 @AlexFebrero_ @ChacoteroPeru @pocoserio_pe @dardo_noticias @unchasqui @EIPeruano https://t.co/WtL45JXiuE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>#ParoDeTransportistas respta. ante tanta muerte y este gobierno sin hacer nada Armonía 10 SUNAT Consejo de Ministros Venezolanos Nazis Fuerzas Armadas FUERZA CRISTAL @angeltorres4283 @DiegoCortazar98 @AlexFebrero_ @ChacoteroPeru @pocoserio_pe @dardo_noticias @unchasqui @EIPeruano https://t.co/WtL45JXiuE</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I51" t="n">
+        <v>443</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>https://t.co/WtL45JXiuE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-04-10 15:54:44.000</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>NO VEO VENECOS @dinaboluarte ?? PURA BULLA. https://t.co/COgoYq0XEu</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NO VEO VENECOS @dinaboluarte ?? PURA BULLA. https://t.co/COgoYq0XEu</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2008</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>https://t.co/COgoYq0XEu</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-04-10 15:53:00.000</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TRES LORCHOS.  DONDE ESTAN@LOS MILEZ DE VENECOS QUE DICE QUE LA ⁦@PoliciaPeru⁩ ATRAPÓ??? Estarán libres. https://t.co/iw10WzMo2I</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>TRES LORCHOS. DONDE ESTAN@LOS MILEZ DE VENECOS QUE DICE QUE LA ⁦@PoliciaPeru⁩ ATRAPÓ??? Estarán libres. https://t.co/iw10WzMo2I</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2008</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>https://t.co/iw10WzMo2I</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-04-10 15:10:20.000</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>El gobierno no puede con los delincuentes nacionales, menos con los extranjeros, el k asesinó al chófer en la av. Venezuela era xtranjero, debe tomar medidas drásticas, es la única forma de tomar ventaja para poder solucionar este problema, expulsando a los vagos.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>El gobierno no puede con los delincuentes nacionales, menos con los extranjeros, el k asesinó al chófer en la av. Venezuela era xtranjero, debe tomar medidas drásticas, es la única forma de tomar ventaja para poder solucionar este problema, expulsando a los vagos.</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2375</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-04-10 15:02:16.000</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Malandros venezolanos de mierda si la cagan</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Malandros venezolanos de mierda si la cagan</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5582</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-04-10 14:25:08.000</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>REFUERZAN CONTROLES | La Superintendencia Nacional de Migraciones, en trabajo conjunto con la Policía, realizó más de 1000 operativos durante el primer trimestre del año y tras ello dispuso la expulsión de más de 760 migrantes por haber transgredido las normas migratorias. https://t.co/hl1Odz8WjL</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>REFUERZAN CONTROLES | La Superintendencia Nacional de Migraciones, en trabajo conjunto con la Policía, realizó más de 1000 operativos durante el primer trimestre del año y tras ello dispuso la expulsión de más de 760 migrantes por haber transgredido las normas migratorias. https://t.co/hl1Odz8WjL</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="I56" t="n">
+        <v>40592</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>https://t.co/hl1Odz8WjL</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-04-10 14:10:16.000</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Chirinos y Yarrow presentan proyecto para enviar a criminales extranjeros y nacionales fuera del país\n\nhttps://t.co/h67b1St1vq</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Chirinos y Yarrow presentan proyecto para enviar a criminales extranjeros y nacionales fuera del país https://t.co/h67b1St1vq</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="I57" t="n">
+        <v>17300</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>https://t.co/h67b1St1vq</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-04-10 12:51:07.000</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Este es mi pais, gente trabajadora, y lo quiero limpio de maldad, de extranjeros asesinos. 🙏 https://t.co/U1cFBKKLdY</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Este es mi pais, gente trabajadora, y lo quiero limpio de maldad, de extranjeros asesinos. 🙏 https://t.co/U1cFBKKLdY</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4496</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>https://t.co/U1cFBKKLdY</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-04-10 11:57:51.000</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>A los peruanos le agarra de cojudo. A ningún venezolano le tienes que dar dinero cuando mendigan en los buses.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A los peruanos le agarra de cojudo. A ningún venezolano le tienes que dar dinero cuando mendigan en los buses.</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>73</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-04-10 11:25:35.000</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Si el Presidente @nayibbukele está dispuesto a negociar el envío de reos venecos al CECOT, en buena hora. Mándenlos mañana. Porque, tenemos un sobre-hacinamiento inhumano. Dina, pensá!</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Si el Presidente @nayibbukele está dispuesto a negociar el envío de reos venecos al CECOT, en buena hora. Mándenlos mañana. Porque, tenemos un sobre-hacinamiento inhumano. Dina, pensá!</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>610</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-04-10 11:18:15.000</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ESTO SE VA A PONER FEO PARA LOS VENECOS, extorsionadores tendrán que salir del callao. https://t.co/Gma0HSZEzk</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ESTO SE VA A PONER FEO PARA LOS VENECOS, extorsionadores tendrán que salir del callao. https://t.co/Gma0HSZEzk</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>93</v>
+      </c>
+      <c r="I61" t="n">
+        <v>282932</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>https://t.co/Gma0HSZEzk</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:36:32.000</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Mañana se viene el paro contra los venecos. https://t.co/vtfuWj3kZW</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Mañana se viene el paro contra los venecos. https://t.co/vtfuWj3kZW</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1139</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>https://t.co/vtfuWj3kZW</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:31:25.000</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Los Limeños: Ay Dios no puedo creer asesinaron a otro venezolano!!! Llamen a la Corte de derechos humanos. https://t.co/yEXrlHk3kX</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Los Limeños: Ay Dios no puedo creer asesinaron a otro venezolano!!! Llamen a la Corte de derechos humanos. https://t.co/yEXrlHk3kX</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1139</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>https://t.co/yEXrlHk3kX</t>
         </is>
       </c>
     </row>
